--- a/Autosphere/School Info/File/Master Template.xlsx
+++ b/Autosphere/School Info/File/Master Template.xlsx
@@ -1,108 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>School Name</t>
-  </si>
-  <si>
-    <t>School Code</t>
-  </si>
-  <si>
-    <t>School Address</t>
-  </si>
-  <si>
-    <t>School Phonenumber</t>
-  </si>
-  <si>
-    <t>Prncipal Name</t>
-  </si>
-  <si>
-    <t>Number of TeachingStaff</t>
-  </si>
-  <si>
-    <t>Number of Non-TeachingStaff </t>
-  </si>
-  <si>
-    <t>Number of School buses</t>
-  </si>
-  <si>
-    <t>School Playground</t>
-  </si>
-  <si>
-    <t>Facilities</t>
-  </si>
-  <si>
-    <t>School Accrediation</t>
-  </si>
-  <si>
-    <t>School Hostel</t>
-  </si>
-  <si>
-    <t>School Canteen</t>
-  </si>
-  <si>
-    <t>School Stationary</t>
-  </si>
-  <si>
-    <t>School Teaching method's</t>
-  </si>
-  <si>
-    <t>School Timing</t>
-  </si>
-  <si>
-    <t>School Achivements</t>
-  </si>
-  <si>
-    <t>School Awards</t>
-  </si>
-  <si>
-    <t>School Uniform</t>
-  </si>
-  <si>
-    <t>School type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Student </t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,19 +54,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,254 +421,3300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" customWidth="1"/>
+    <col width="15.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.42578125" customWidth="1" min="2" max="2"/>
+    <col width="15.42578125" customWidth="1" min="3" max="3"/>
+    <col width="21.7109375" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="15.5703125" customWidth="1" min="6" max="6"/>
+    <col width="24.140625" customWidth="1" min="7" max="7"/>
+    <col width="27.5703125" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" min="10" max="10"/>
+    <col width="13.7109375" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="14.28515625" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="17.140625" customWidth="1" min="15" max="15"/>
+    <col width="25.140625" customWidth="1" min="16" max="16"/>
+    <col width="16.5703125" customWidth="1" min="17" max="17"/>
+    <col width="19.140625" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="14.85546875" customWidth="1" min="19" max="19"/>
+    <col width="14.7109375" customWidth="1" min="20" max="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>School Code</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>School Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>School Address</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>School Phonenumber</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of Student </t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Prncipal Name</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Number of TeachingStaff</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of Non-TeachingStaff </t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Number of School buses</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>School Playground</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>School Accrediation</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>School Hostel</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>School Canteen</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>School Stationary</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>School Teaching method's</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>School Timing</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>School Achivements</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>School Awards</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>School Uniform</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>School type</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>142758</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vivekananda High School</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bagya nagar 4th line,ongole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9010627652</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2136 Students</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dr.M.Srinivas rao</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2000 yards playground</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>9:00 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Chix Red &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>174921</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>St.Xaiver's High School</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kurnool Raod,ongole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7547256425</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2153 Students</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dr.Joseph Edward</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3802 yards playground</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>9:35 am to 4:35 pm</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>White &amp; Chix Dodgerblue color uniform</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>212868</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SSN High School</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mangamur Raod, ongole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9554367289</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2104 Students</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dr.Prakash reddy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2043 yards playground</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Blue &amp; white color uniform</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>258491</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oxford Model High School</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Kammavaripalem,ongole</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7936139462</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2781 Students</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P.Subbaiah Chowdaray</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2000 yards playground</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Black Board,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>8:30 am to 5:00 pm</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Mango Yellow &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>259431</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pragathi Vidya international School</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pellur,ongole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9548365643</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1240 Students</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dr.R.Baskareddy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2530 yards playground</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>9:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Blue Suite &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>274812</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kendriya ViswaVidayalam,Ongole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Near D.A.Polytechnic college,ongole</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9542775584</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2794 Students</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dr.Kalyanchakarvarty</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3058 yards playground</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>9:10 am to 4:00 pm</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Best School Amoung India</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Tomato Red &amp; Chix White color uniform</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>274921</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravi Priya Public School</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Addaki Raod,ongole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9951748365</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1738 Students</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dr.B.A.Venkaestwarlu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2110 yards playground</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>9:30 am to 5:00 pm</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Yellow &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>281539</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pace Gobal School</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Near Railway Station,ongole</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9542518543</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1400 Students</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dr.M.Sreevasan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1200 yards playground</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Pink &amp; Brinjal color uniform</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>379416</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sree Vidyanikethan HIgh School</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Samathanagar,ongole</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7945556335</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2100 Students</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ch.Kanakaiah</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>700 yards playground</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Black Board,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>8:30 am to 4:00 pm</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Red &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>428615</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kota Veeraiah Chowdary High School</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thorvagunta,ongole</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9959932818</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1855 Students</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>K.L.Narayana</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1050 yards playground</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>9:00 am to 5:00 pm</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Cream &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>437217</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Naryana Public High School</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NH-16 Highway,ongole</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9958974565</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2784 Students</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dr.N.Mahesh</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>3053 yards playground</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>8:35 am to 5:30 pm</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Brown &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>441539</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vigna Swaraswathi Grammer School</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kopolu Raod, ongole</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7672836944</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1753 Students</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dr.M.Sukumar puhan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1000 yards playground</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>9:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Green &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>441637</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pallanadu Model High School</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pernamitta,ongole</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7629427551</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2864 Students</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dr.K.Sreevastava</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1700 yards playground</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>9:25 am to 5:00 pm</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Coffee Brown &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>535252</v>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aurora Public School</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Pragathinagar, ongole</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9542738192</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1792 Students</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B.V.Naidu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1400 yards playground</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Not Avaliable</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Not Avaliable</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>8:30 am to 5:00 pm</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Pink &amp; Blue color uniform</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>573217</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bharatiya Techno School</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kurnool Raod, ongole</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9952823721</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2163 Students</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dr.Y.Sesha Rao</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2506yards playground</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>9:00 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Yellow T-Shirt &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>585382</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ragunadha Model High School</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Lawerpeta,ongole</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8374654753</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2433 Students</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ch.Ramesh Reddy</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1030 yards playground</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>9:00 am to 5:30 pm</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Red &amp; Cream color uniform</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>659215</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ongole Public School</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NearRailwayStation,ongole</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9474691723</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2672 Students</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dr.H.Nageswarao</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3560 yards playground</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>8:30 am to 4:35 pm</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Brinjal &amp; Pale Yellow color uniform</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>716427</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Krishna Memorial High School</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bagya nagar,4th line,Near Register Office,ongole</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7659925344</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2584 Students</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>M.Ratnakumari</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2100 yards playground</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>9:25 am to 4:35 pm</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Most of the Student's got Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Light Blue &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>721736</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nirmala High School</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sujatha Nagar, ongole</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9951274935</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2902 Students</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P.N.P.Murty</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1000 yards playground</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>9:00 am to 5:30 pm</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Good grade upto 9.9GPA</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Brown chix &amp; Brown color uniform</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>728042</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>QIS Public School</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kurnool Raod, ongole</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8565990787</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2684 Students</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dr.C.V.Subbarao</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1585 yards playground</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>8:30 am to 4:10 pm</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Blue &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>749251</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ganga High School</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lawerpeta,ongole</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9586037725</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2481 Students</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N.Srinivas Rao</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1550 yards playground</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>9:00 am to 5:35 pm</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Red T-Shirt &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>758545</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ravindra Bharathi High School</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bagyanagar 3 line, ongole</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9847825473</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2550 Students</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dr.P.Ravindranath Tagore</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2000 yards playground</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9:00 am to 5:30 pm</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Red &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>775585</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sri Bharatiya Vidyaliaya Model School</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bharat nagar ,kothapatam busstand, ongole</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8008680042</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2100 Students</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dr.S.Bharathi reddy</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1000 yards playground</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CBSC Board</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>9:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Blue &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>783943</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bashyam Public School</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ramnagar 4th line, ongole</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>08592280169</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1500 Students</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dr.K.Vijayashanthi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>700 yards playground</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>9:10 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Blue &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>793612</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Buchapally Subba Reddy High School</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kurnool Raod,ongole</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8584663291</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2612 Students</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Dr.K.Srinivas Reddy</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2753 yards playground</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>9:25 am to 4:35 pm</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>White &amp; Dark Blue color uniform</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>795421</v>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Subbaiah High School</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Pernamitta, ongole</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9705627835</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1952 Students</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>T.Venkata subbaiah</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1753 yards playground</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>8:00 am to 5:30 pm</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Cement &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>819263</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BVM High School</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nageswarao nagar,ongole</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9753754825</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2472 Students</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>L.Venkat reddy</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2171 yards playground</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Not Avaliable</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Not Avaliable</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>9:00 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Brinjal Blue &amp; Pale White color uniform</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>943169</v>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PNR Boys Residential High School</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Anjaiah Raod, ongole</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9951193827</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3047 Students</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N.Veeraiah chowdary</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10538 yards playground</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Having Hostel only for boys</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Not avaliable</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Black Board,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>10:00 am to 3:35 pm</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Best in Top Residential School in A.P</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>White &amp; Blue color uniform</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Only For Boys</t>
+        </is>
+      </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>954216</v>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sri Chaitanya Techo School</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kurnool Road ongole</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9372894657</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2552 Students</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>D.Prasad Rao</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2312 yards playground</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Having seperately for girls &amp; boys</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Black Board,PPT,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>8:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Pink &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
+      </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>954395</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Devanandam High School</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Santhanuthalapadu, ongole</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9105627885</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2221 Students</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>T.Devanandam</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2153 yards playground</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Best in all</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SSC Board</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Having seperately only for girls</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Good Food items with Less Price</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Inside the school premesis avaliable</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Black Board,Oral presentation methods</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>9:30 am to 4:30 pm</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Good grade upto 10GPA</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Best School in A.P</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>White &amp; White color uniform</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Co-Education</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>